--- a/public/ReporteSoliOficinaEquipoTrabajar.xlsx
+++ b/public/ReporteSoliOficinaEquipoTrabajar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>CAMBIO DE COMPONENTE</t>
   </si>
@@ -153,6 +153,39 @@
   </si>
   <si>
     <t>arreglo de pantalla</t>
+  </si>
+  <si>
+    <t>reclamo de cpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			KAREN PAOLA                             	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	YABAR                                   	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	PACHECO                                 	</t>
+  </si>
+  <si>
+    <t>reclamo de cpu2</t>
+  </si>
+  <si>
+    <t>reclamo de cpu3</t>
+  </si>
+  <si>
+    <t>reclamo de cpu4</t>
+  </si>
+  <si>
+    <t>reclamo de cpu7</t>
+  </si>
+  <si>
+    <t>reclamo de cpu9</t>
+  </si>
+  <si>
+    <t>reclamo de cpu20</t>
   </si>
 </sst>
 </file>
@@ -491,7 +524,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1058,890 @@
       </c>
       <c r="J18" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
